--- a/data/trans_orig/Q19B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Estudios-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>48.54246522669123</v>
+        <v>48.50428600634831</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>58.36524597085825</v>
+        <v>58.78014891206132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42.46694163714898</v>
+        <v>43.15516416404399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56.3847998614715</v>
+        <v>57.10501197717581</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>52.79690667116883</v>
+        <v>53.27562118805186</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>36.76468937459177</v>
+        <v>36.64104995520888</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>54.71108944450351</v>
+        <v>54.90739371375814</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>57.16534495531645</v>
+        <v>56.65538797341647</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>41.05738817075645</v>
+        <v>40.77255710915988</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>59.99438922601377</v>
+        <v>60.30145541968174</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>71.29971332959346</v>
+        <v>72.44702557195328</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58.66562788291608</v>
+        <v>58.66043837545423</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68.62675559741861</v>
+        <v>68.59743690484397</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>65.26899492417571</v>
+        <v>65.79090746105653</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>48.55973969008274</v>
+        <v>47.67801471128439</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>63.16470959258828</v>
+        <v>63.97056002246525</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>65.86738618351599</v>
+        <v>66.05997653826836</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>50.41726974403313</v>
+        <v>50.38461821445044</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>27.43803002697194</v>
+        <v>27.42770374908325</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>30.41430235131987</v>
+        <v>30.46116405853286</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29.82623123466016</v>
+        <v>29.55761295049507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23.64497252034001</v>
+        <v>23.60893825924211</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>25.57993232978577</v>
+        <v>25.62729670242843</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>23.34907595734409</v>
+        <v>23.21095477540914</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>26.15634104743348</v>
+        <v>26.19415191528831</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>28.9584775740393</v>
+        <v>28.98557694219209</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>27.31952203817022</v>
+        <v>27.37891751283227</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>31.91997173603834</v>
+        <v>31.94085648915219</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>35.34512604609453</v>
+        <v>35.25177248229328</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>35.27792036444496</v>
+        <v>35.14094604818862</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27.40486138315181</v>
+        <v>27.3364450198811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>29.43926844172191</v>
+        <v>29.75499229965517</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.41379631026278</v>
+        <v>27.48139522198048</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>29.25528297308252</v>
+        <v>29.2648045983256</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>32.40293745561903</v>
+        <v>32.42358756084131</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>30.79719572494406</v>
+        <v>30.8155451357335</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>27.17310422351399</v>
+        <v>27.12859459091446</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>32.32924448590295</v>
+        <v>32.03074330888502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26.07134276925698</v>
+        <v>25.9980385850969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21.10136657972748</v>
+        <v>21.12204128118507</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>20.88685215927326</v>
+        <v>20.86421128312526</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.8509961473953</v>
+        <v>17.82571039170073</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>24.75085829973148</v>
+        <v>25.2304588768418</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>28.06645895174534</v>
+        <v>27.91158106106905</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>22.62723485422171</v>
+        <v>22.61036456643042</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>37.28698784919793</v>
+        <v>37.27510125364491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>45.91798606703816</v>
+        <v>45.86094685087271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46.20884304549397</v>
+        <v>47.46066061082037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28.40499100984587</v>
+        <v>28.12156795295378</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>29.98247977662898</v>
+        <v>29.27407300177688</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>30.24043043260768</v>
+        <v>31.1054740715316</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>31.36105051899997</v>
+        <v>31.31157913355099</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>35.91994288553414</v>
+        <v>36.88185167330922</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>33.7026305962275</v>
+        <v>33.80973856330991</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>35.015808552778</v>
+        <v>34.95362157941499</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>40.72122135749925</v>
+        <v>40.46224446121948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33.03172121536061</v>
+        <v>33.21638718185131</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37.40313899158926</v>
+        <v>37.66602281671658</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>36.88581044099129</v>
+        <v>36.99780061393975</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>26.78409223860054</v>
+        <v>26.70600174316357</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>37.00836030300241</v>
+        <v>36.95267524430697</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>39.21961796260762</v>
+        <v>39.6120624726547</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>30.42747039651903</v>
+        <v>30.3482982785472</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>39.74976015207249</v>
+        <v>39.76756655295195</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>46.28077923474371</v>
+        <v>46.10660600973397</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>38.52756467887716</v>
+        <v>38.5157024402047</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>43.0599257462347</v>
+        <v>43.11962952732075</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>41.96898250837072</v>
+        <v>42.60298179516586</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>31.08926615217582</v>
+        <v>30.85738438963429</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>40.55459197367251</v>
+        <v>40.53519178699879</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>43.3210109230714</v>
+        <v>43.3094838125613</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>34.02584496062149</v>
+        <v>33.83890287458313</v>
       </c>
     </row>
     <row r="16">
